--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Hgf-Met.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Hgf-Met.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>5.231719</v>
+        <v>0.01134666666666667</v>
       </c>
       <c r="H2">
-        <v>15.695157</v>
+        <v>0.03404</v>
       </c>
       <c r="I2">
-        <v>0.362499186434781</v>
+        <v>0.001209510404472147</v>
       </c>
       <c r="J2">
-        <v>0.362499186434781</v>
+        <v>0.001209510404472147</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.847798333333333</v>
+        <v>0.1809866666666667</v>
       </c>
       <c r="N2">
-        <v>5.543395</v>
+        <v>0.54296</v>
       </c>
       <c r="O2">
-        <v>0.05039680725746681</v>
+        <v>0.03987407676082905</v>
       </c>
       <c r="P2">
-        <v>0.05039680725746681</v>
+        <v>0.03987407676082905</v>
       </c>
       <c r="Q2">
-        <v>9.667161648668333</v>
+        <v>0.002053595377777777</v>
       </c>
       <c r="R2">
-        <v>87.00445483801501</v>
+        <v>0.0184823584</v>
       </c>
       <c r="S2">
-        <v>0.01826880162974218</v>
+        <v>4.822811071094378E-05</v>
       </c>
       <c r="T2">
-        <v>0.01826880162974218</v>
+        <v>4.822811071094378E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>5.231719</v>
+        <v>0.01134666666666667</v>
       </c>
       <c r="H3">
-        <v>15.695157</v>
+        <v>0.03404</v>
       </c>
       <c r="I3">
-        <v>0.362499186434781</v>
+        <v>0.001209510404472147</v>
       </c>
       <c r="J3">
-        <v>0.362499186434781</v>
+        <v>0.001209510404472147</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.439567</v>
       </c>
       <c r="O3">
-        <v>0.0130875719001099</v>
+        <v>0.1057193993302571</v>
       </c>
       <c r="P3">
-        <v>0.0130875719001099</v>
+        <v>0.1057193993302571</v>
       </c>
       <c r="Q3">
-        <v>2.510470008557667</v>
+        <v>0.005444762297777778</v>
       </c>
       <c r="R3">
-        <v>22.594230077019</v>
+        <v>0.04900286068</v>
       </c>
       <c r="S3">
-        <v>0.004744234166196539</v>
+        <v>0.0001278687134444917</v>
       </c>
       <c r="T3">
-        <v>0.004744234166196539</v>
+        <v>0.0001278687134444917</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>5.231719</v>
+        <v>0.01134666666666667</v>
       </c>
       <c r="H4">
-        <v>15.695157</v>
+        <v>0.03404</v>
       </c>
       <c r="I4">
-        <v>0.362499186434781</v>
+        <v>0.001209510404472147</v>
       </c>
       <c r="J4">
-        <v>0.362499186434781</v>
+        <v>0.001209510404472147</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>34.337334</v>
+        <v>3.878113333333333</v>
       </c>
       <c r="N4">
-        <v>103.012002</v>
+        <v>11.63434</v>
       </c>
       <c r="O4">
-        <v>0.9365156208424232</v>
+        <v>0.8544065239089139</v>
       </c>
       <c r="P4">
-        <v>0.9365156208424232</v>
+        <v>0.8544065239089139</v>
       </c>
       <c r="Q4">
-        <v>179.643282697146</v>
+        <v>0.04400365928888889</v>
       </c>
       <c r="R4">
-        <v>1616.789544274314</v>
+        <v>0.3960329336</v>
       </c>
       <c r="S4">
-        <v>0.3394861506388422</v>
+        <v>0.001033413580316711</v>
       </c>
       <c r="T4">
-        <v>0.3394861506388422</v>
+        <v>0.001033413580316711</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>24.950836</v>
       </c>
       <c r="I5">
-        <v>0.5762706133406404</v>
+        <v>0.8865539289740954</v>
       </c>
       <c r="J5">
-        <v>0.5762706133406403</v>
+        <v>0.8865539289740952</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.847798333333333</v>
+        <v>0.1809866666666667</v>
       </c>
       <c r="N5">
-        <v>5.543395</v>
+        <v>0.54296</v>
       </c>
       <c r="O5">
-        <v>0.05039680725746681</v>
+        <v>0.03987407676082905</v>
       </c>
       <c r="P5">
-        <v>0.05039680725746681</v>
+        <v>0.03987407676082905</v>
       </c>
       <c r="Q5">
-        <v>15.36803772535778</v>
+        <v>1.505256212728889</v>
       </c>
       <c r="R5">
-        <v>138.31233952822</v>
+        <v>13.54730591456</v>
       </c>
       <c r="S5">
-        <v>0.02904219902867044</v>
+        <v>0.03535051941652767</v>
       </c>
       <c r="T5">
-        <v>0.02904219902867043</v>
+        <v>0.03535051941652766</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>24.950836</v>
       </c>
       <c r="I6">
-        <v>0.5762706133406404</v>
+        <v>0.8865539289740954</v>
       </c>
       <c r="J6">
-        <v>0.5762706133406403</v>
+        <v>0.8865539289740952</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>1.439567</v>
       </c>
       <c r="O6">
-        <v>0.0130875719001099</v>
+        <v>0.1057193993302571</v>
       </c>
       <c r="P6">
-        <v>0.0130875719001099</v>
+        <v>0.1057193993302571</v>
       </c>
       <c r="Q6">
         <v>3.99093334755689</v>
@@ -818,10 +818,10 @@
         <v>35.918400128012</v>
       </c>
       <c r="S6">
-        <v>0.007541983086016063</v>
+        <v>0.09372594884502078</v>
       </c>
       <c r="T6">
-        <v>0.007541983086016062</v>
+        <v>0.09372594884502077</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>24.950836</v>
       </c>
       <c r="I7">
-        <v>0.5762706133406404</v>
+        <v>0.8865539289740954</v>
       </c>
       <c r="J7">
-        <v>0.5762706133406403</v>
+        <v>0.8865539289740952</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>34.337334</v>
+        <v>3.878113333333333</v>
       </c>
       <c r="N7">
-        <v>103.012002</v>
+        <v>11.63434</v>
       </c>
       <c r="O7">
-        <v>0.9365156208424232</v>
+        <v>0.8544065239089139</v>
       </c>
       <c r="P7">
-        <v>0.9365156208424232</v>
+        <v>0.8544065239089139</v>
       </c>
       <c r="Q7">
-        <v>285.5817297704081</v>
+        <v>32.25405658980445</v>
       </c>
       <c r="R7">
-        <v>2570.235567933672</v>
+        <v>290.28650930824</v>
       </c>
       <c r="S7">
-        <v>0.5396864312259539</v>
+        <v>0.757477460712547</v>
       </c>
       <c r="T7">
-        <v>0.5396864312259538</v>
+        <v>0.7574774607125468</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8836963333333333</v>
+        <v>1.052914333333334</v>
       </c>
       <c r="H8">
-        <v>2.651089</v>
+        <v>3.158743</v>
       </c>
       <c r="I8">
-        <v>0.06123020022457864</v>
+        <v>0.1122365606214325</v>
       </c>
       <c r="J8">
-        <v>0.06123020022457864</v>
+        <v>0.1122365606214325</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.847798333333333</v>
+        <v>0.1809866666666667</v>
       </c>
       <c r="N8">
-        <v>5.543395</v>
+        <v>0.54296</v>
       </c>
       <c r="O8">
-        <v>0.05039680725746681</v>
+        <v>0.03987407676082905</v>
       </c>
       <c r="P8">
-        <v>0.05039680725746681</v>
+        <v>0.03987407676082905</v>
       </c>
       <c r="Q8">
-        <v>1.632892611906111</v>
+        <v>0.1905634554755556</v>
       </c>
       <c r="R8">
-        <v>14.696033507155</v>
+        <v>1.71507109928</v>
       </c>
       <c r="S8">
-        <v>0.00308580659905419</v>
+        <v>0.004475329233590444</v>
       </c>
       <c r="T8">
-        <v>0.00308580659905419</v>
+        <v>0.004475329233590444</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8836963333333333</v>
+        <v>1.052914333333334</v>
       </c>
       <c r="H9">
-        <v>2.651089</v>
+        <v>3.158743</v>
       </c>
       <c r="I9">
-        <v>0.06123020022457864</v>
+        <v>0.1122365606214325</v>
       </c>
       <c r="J9">
-        <v>0.06123020022457864</v>
+        <v>0.1122365606214325</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>1.439567</v>
       </c>
       <c r="O9">
-        <v>0.0130875719001099</v>
+        <v>0.1057193993302571</v>
       </c>
       <c r="P9">
-        <v>0.0130875719001099</v>
+        <v>0.1057193993302571</v>
       </c>
       <c r="Q9">
-        <v>0.4240466931625556</v>
+        <v>0.5052469093645556</v>
       </c>
       <c r="R9">
-        <v>3.816420238463</v>
+        <v>4.547222184281001</v>
       </c>
       <c r="S9">
-        <v>0.0008013546478972982</v>
+        <v>0.01186558177179183</v>
       </c>
       <c r="T9">
-        <v>0.0008013546478972983</v>
+        <v>0.01186558177179183</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8836963333333333</v>
+        <v>1.052914333333334</v>
       </c>
       <c r="H10">
-        <v>2.651089</v>
+        <v>3.158743</v>
       </c>
       <c r="I10">
-        <v>0.06123020022457864</v>
+        <v>0.1122365606214325</v>
       </c>
       <c r="J10">
-        <v>0.06123020022457864</v>
+        <v>0.1122365606214325</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>34.337334</v>
+        <v>3.878113333333333</v>
       </c>
       <c r="N10">
-        <v>103.012002</v>
+        <v>11.63434</v>
       </c>
       <c r="O10">
-        <v>0.9365156208424232</v>
+        <v>0.8544065239089139</v>
       </c>
       <c r="P10">
-        <v>0.9365156208424232</v>
+        <v>0.8544065239089139</v>
       </c>
       <c r="Q10">
-        <v>30.343776152242</v>
+        <v>4.083321114957778</v>
       </c>
       <c r="R10">
-        <v>273.093985370178</v>
+        <v>36.74989003462</v>
       </c>
       <c r="S10">
-        <v>0.05734303897762714</v>
+        <v>0.09589564961605025</v>
       </c>
       <c r="T10">
-        <v>0.05734303897762714</v>
+        <v>0.09589564961605025</v>
       </c>
     </row>
   </sheetData>
